--- a/biology/Biochimie/Bêta-Carotène/Bêta-Carotène.xlsx
+++ b/biology/Biochimie/Bêta-Carotène/Bêta-Carotène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-Carot%C3%A8ne</t>
+          <t>Bêta-Carotène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le β-carotène est la forme de carotène la plus répandue. C'est un précurseur de la vitamine A désigné comme « provitamine A »[5].
+Le β-carotène est la forme de carotène la plus répandue. C'est un précurseur de la vitamine A désigné comme « provitamine A ».
 Le bêta-carotène est un pigment photosynthétique qui absorbe les longueurs d'onde entre 400 et 500 nm.
-Deux études suggèrent que les suppléments hautement dosés en β-carotène augmentent les risques et la mortalité de cancer des poumons chez les fumeurs et les personnes ayant été en contact avec l'amiante[6],[7].
-Son taux sanguin semble être un marqueur du risque de mortalité[8].
+Deux études suggèrent que les suppléments hautement dosés en β-carotène augmentent les risques et la mortalité de cancer des poumons chez les fumeurs et les personnes ayant été en contact avec l'amiante,.
+Son taux sanguin semble être un marqueur du risque de mortalité.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%AAta-Carot%C3%A8ne</t>
+          <t>Bêta-Carotène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,15 @@
           <t>Additif alimentaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le β-carotène est utilisé comme additif alimentaire et porte quatre numéros E :
-E160a(i) : β-carotène synthétique. Il comporte l'isomère tout-trans avec de faibles proportions d'autres caroténoïdes[9] ;
-E160a(ii) : carotènes extraits de végétaux. Ils comportent majoritairement du β-carotène avec de faibles proportions d'α, γ et δ-carotène. Ils sont extraits de végétaux comme les carottes (Daucus carota), l'huile de palme (Elaeis guineensis), ou la patate douce (Ipomoea batatas) à l'aide de solvants comme l'acétone, le méthanol, l'éthanol, le propan-2-ol, l'hexane,le dioxyde de carbone et les huiles végétales[10] ;
-E160a(iii) : obtenu par la fermentation de Blakeslea trispora. Il contient majoritairement du β-carotène trans avec des proportions variables d'isomères cis et de faibles quantités de γ-carotène. Les seuls solvants utilisés pour l'extraction sont l'éthanol, l'isopropanol, l'acétate d'éthyle et l'acétate d'isobutyle[11] ;
-E160a(iv) : carotènes extraits d'algues. Ils sont extraits de Dunaliella salina (ou D. bardawil et D. Kone). Ils contiennent des β-carotènes trans et cis avec de faibles proportions d'α-carotène et de xanthophylles[12].</t>
+E160a(i) : β-carotène synthétique. Il comporte l'isomère tout-trans avec de faibles proportions d'autres caroténoïdes ;
+E160a(ii) : carotènes extraits de végétaux. Ils comportent majoritairement du β-carotène avec de faibles proportions d'α, γ et δ-carotène. Ils sont extraits de végétaux comme les carottes (Daucus carota), l'huile de palme (Elaeis guineensis), ou la patate douce (Ipomoea batatas) à l'aide de solvants comme l'acétone, le méthanol, l'éthanol, le propan-2-ol, l'hexane,le dioxyde de carbone et les huiles végétales ;
+E160a(iii) : obtenu par la fermentation de Blakeslea trispora. Il contient majoritairement du β-carotène trans avec des proportions variables d'isomères cis et de faibles quantités de γ-carotène. Les seuls solvants utilisés pour l'extraction sont l'éthanol, l'isopropanol, l'acétate d'éthyle et l'acétate d'isobutyle ;
+E160a(iv) : carotènes extraits d'algues. Ils sont extraits de Dunaliella salina (ou D. bardawil et D. Kone). Ils contiennent des β-carotènes trans et cis avec de faibles proportions d'α-carotène et de xanthophylles.</t>
         </is>
       </c>
     </row>
